--- a/nodes_source_analyses/energy/transport/transport_car_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/transport/transport_car_using_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B43779-535A-C845-8294-A888BF08689E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10B89BA-2BDF-2F4A-B733-18BD27DA84F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30080" yWindow="-18040" windowWidth="30080" windowHeight="16080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="140">
   <si>
     <t>Source</t>
   </si>
@@ -133,15 +138,6 @@
     <t>free_co2_factor</t>
   </si>
   <si>
-    <t>forecasting_error</t>
-  </si>
-  <si>
-    <t>part_load_efficiency_penalty</t>
-  </si>
-  <si>
-    <t>part_load_operating_point</t>
-  </si>
-  <si>
     <t>technical_lifetime</t>
   </si>
   <si>
@@ -161,12 +157,6 @@
   </si>
   <si>
     <t>typical_input_capacity</t>
-  </si>
-  <si>
-    <t>network_capacity_available_in_mw</t>
-  </si>
-  <si>
-    <t>network_capacity_used_in_mw</t>
   </si>
   <si>
     <t>ucs</t>
@@ -422,9 +412,6 @@
     <t>wacc</t>
   </si>
   <si>
-    <t>Weighted average cost of capita</t>
-  </si>
-  <si>
     <t>takes_part_in_ets</t>
   </si>
   <si>
@@ -459,9 +446,6 @@
   </si>
   <si>
     <t>storage decay per day</t>
-  </si>
-  <si>
-    <t>storage decay</t>
   </si>
   <si>
     <t>storage volume</t>
@@ -543,29 +527,49 @@
     <t>% per hour</t>
   </si>
   <si>
-    <t>per hour</t>
+    <t>Does not take part in ETS</t>
+  </si>
+  <si>
+    <t>Weighted average cost of capital</t>
+  </si>
+  <si>
+    <t>Quintel assumption (see https://docs.energytransitionmodel.com/main/cost-wacc)</t>
+  </si>
+  <si>
+    <t>storage decay per month</t>
+  </si>
+  <si>
+    <t>storage decay per hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="175" formatCode="0.0000000%"/>
-    <numFmt numFmtId="177" formatCode="0.0000000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000%"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1121,638 +1125,634 @@
   </borders>
   <cellStyleXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="33" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="34" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="35" fillId="2" borderId="0" xfId="337" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="34" fillId="2" borderId="0" xfId="337" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="34" fillId="2" borderId="0" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="35" fillId="0" borderId="18" xfId="337" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="35" fillId="2" borderId="18" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="338">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2251,8 +2251,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1193800</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2399,8 +2399,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11403273" y="40607967"/>
-          <a:ext cx="11277177" cy="4366846"/>
+          <a:off x="14336973" y="40646067"/>
+          <a:ext cx="13232977" cy="4366846"/>
           <a:chOff x="9231573" y="32137067"/>
           <a:chExt cx="12902777" cy="4417646"/>
         </a:xfrm>
@@ -2512,8 +2512,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11341100" y="45834300"/>
-          <a:ext cx="14605001" cy="4152900"/>
+          <a:off x="14274800" y="45872400"/>
+          <a:ext cx="17119601" cy="4152900"/>
           <a:chOff x="9702800" y="37896800"/>
           <a:chExt cx="16776701" cy="4152900"/>
         </a:xfrm>
@@ -3044,25 +3044,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+    <row r="1" spans="1:3" s="24" customFormat="1">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
@@ -3075,16 +3075,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3108,106 +3108,106 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="80"/>
+      <c r="B9" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>44</v>
+      <c r="B11" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="81"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="84" t="s">
-        <v>46</v>
+      <c r="B13" s="76"/>
+      <c r="C13" s="79" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82" t="s">
-        <v>47</v>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>49</v>
+      <c r="B16" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="86" t="s">
-        <v>50</v>
+      <c r="B17" s="76"/>
+      <c r="C17" s="81" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="87" t="s">
-        <v>51</v>
+      <c r="B18" s="76"/>
+      <c r="C18" s="82" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="88" t="s">
-        <v>52</v>
+      <c r="B19" s="76"/>
+      <c r="C19" s="83" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90" t="s">
-        <v>53</v>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="91" t="s">
-        <v>54</v>
+      <c r="B21" s="84"/>
+      <c r="C21" s="86" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="92" t="s">
-        <v>55</v>
+      <c r="B22" s="84"/>
+      <c r="C22" s="87" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="89"/>
-      <c r="C23" s="93" t="s">
-        <v>56</v>
+      <c r="B23" s="84"/>
+      <c r="C23" s="88" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3224,72 +3224,56 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="33" customWidth="1"/>
-    <col min="7" max="7" width="43.1640625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="33" customWidth="1"/>
-    <col min="10" max="10" width="5" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="4.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="176" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="179"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="182"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1">
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="35"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="172" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="174"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="175"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="177"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="175"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="178"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="180"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1"/>
+    <row r="7" spans="2:10">
+      <c r="B7" s="33"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3297,14 +3281,14 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="2:11" s="22" customFormat="1">
-      <c r="B8" s="100"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="2:10" s="13" customFormat="1">
+      <c r="B8" s="95"/>
       <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="96" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -3318,583 +3302,463 @@
       <c r="I8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="2:11" s="22" customFormat="1">
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="2:10" s="13" customFormat="1">
       <c r="B9" s="21"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="D9" s="29"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1">
+    <row r="10" spans="2:10" s="13" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="D10" s="29"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1">
+    <row r="11" spans="2:10" s="13" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="21"/>
-      <c r="C11" s="65" t="s">
-        <v>127</v>
+      <c r="C11" s="62" t="s">
+        <v>120</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="32">
+        <v>121</v>
+      </c>
+      <c r="E11" s="31">
         <f>'Research data'!H7</f>
         <v>2.0422269584645436</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="124" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="130" t="s">
-        <v>78</v>
+      <c r="F11" s="35"/>
+      <c r="G11" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="124" t="s">
+        <v>73</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1">
+    <row r="12" spans="2:10" s="13" customFormat="1" ht="17" thickBot="1">
       <c r="B12" s="21"/>
-      <c r="C12" s="65" t="s">
-        <v>79</v>
+      <c r="C12" s="62" t="s">
+        <v>74</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="132">
+        <v>75</v>
+      </c>
+      <c r="E12" s="126">
         <f>'Research data'!H8/1000</f>
         <v>0.1</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="168" t="s">
-        <v>125</v>
+      <c r="F12" s="35"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="158" t="s">
+        <v>118</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1">
+    <row r="13" spans="2:10" s="13" customFormat="1" ht="17" thickBot="1">
       <c r="B13" s="21"/>
-      <c r="C13" s="65" t="s">
-        <v>82</v>
+      <c r="C13" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="192">
+        <v>134</v>
+      </c>
+      <c r="E13" s="188">
         <f>'Research data'!H9</f>
-        <v>4.1867632449266168E-4</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="130" t="str">
+        <v>5.4866766968530989E-5</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="124" t="str">
         <f>Sources!D11</f>
         <v>Tesla model s owner's manual</v>
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="37" t="s">
+    <row r="14" spans="2:10" ht="17" thickBot="1">
+      <c r="B14" s="36"/>
+      <c r="C14" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="37">
         <v>1</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
-      <c r="B15" s="38"/>
-      <c r="C15" s="37" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="94"/>
+    </row>
+    <row r="15" spans="2:10" ht="17" thickBot="1">
+      <c r="B15" s="36"/>
+      <c r="C15" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="37">
         <v>0</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="32" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="94"/>
+    </row>
+    <row r="16" spans="2:10" ht="17" thickBot="1">
+      <c r="B16" s="36"/>
+      <c r="C16" s="35" t="s">
         <v>30</v>
-      </c>
-      <c r="J15" s="99"/>
-      <c r="K15" s="34"/>
-    </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1">
-      <c r="B16" s="38"/>
-      <c r="C16" s="37" t="s">
-        <v>25</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="38">
         <v>0</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1">
-      <c r="B17" s="38"/>
-      <c r="C17" s="37" t="s">
-        <v>33</v>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="94"/>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1">
+      <c r="B17" s="36"/>
+      <c r="C17" s="154" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="40">
+        <v>78</v>
+      </c>
+      <c r="E17" s="104">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="94"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="36"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="98"/>
+      <c r="J18" s="94"/>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1">
+      <c r="A19" s="127"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="97"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="130"/>
+    </row>
+    <row r="20" spans="1:10" ht="17" thickBot="1">
+      <c r="A20" s="127"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="132">
         <v>0</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="140" t="s">
+      <c r="F20" s="131"/>
+      <c r="G20" s="131" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="131"/>
+      <c r="I20" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="130"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1">
+      <c r="A21" s="127"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="131" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="134">
+        <v>0</v>
+      </c>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="131"/>
+      <c r="I21" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="130"/>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1">
+      <c r="A22" s="127"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="134">
+        <v>0</v>
+      </c>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="136"/>
+      <c r="I22" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="138"/>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1">
+      <c r="A23" s="127"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="137"/>
+      <c r="E23" s="134">
+        <v>0</v>
+      </c>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="136"/>
+      <c r="I23" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="138"/>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1">
+      <c r="A24" s="127"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="137"/>
+      <c r="E24" s="134">
+        <v>0</v>
+      </c>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="136"/>
+      <c r="I24" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="138"/>
+    </row>
+    <row r="25" spans="1:10" ht="17" thickBot="1">
+      <c r="A25" s="127"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="99"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1">
-      <c r="B18" s="38"/>
-      <c r="C18" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="32">
+      <c r="D25" s="137"/>
+      <c r="E25" s="134">
         <v>0</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="99"/>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1">
-      <c r="B19" s="38"/>
-      <c r="C19" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="32">
+      <c r="F25" s="136"/>
+      <c r="G25" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="136"/>
+      <c r="I25" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="138"/>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1">
+      <c r="A26" s="127"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="137"/>
+      <c r="E26" s="134">
         <v>0</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="99"/>
-      <c r="K19" s="34"/>
-    </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1">
-      <c r="B20" s="38"/>
-      <c r="C20" s="162" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="109">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="99"/>
-    </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1">
-      <c r="B21" s="38"/>
-      <c r="C21" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="40">
+      <c r="F26" s="136"/>
+      <c r="G26" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="136"/>
+      <c r="I26" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="138"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A27" s="127"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="184">
+        <v>0.04</v>
+      </c>
+      <c r="F27" s="131"/>
+      <c r="G27" s="182" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="131"/>
+      <c r="I27" s="183" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="130"/>
+    </row>
+    <row r="28" spans="1:10" ht="17" thickBot="1">
+      <c r="A28" s="127"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="134">
         <v>0</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="99"/>
-    </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1">
-      <c r="B22" s="38"/>
-      <c r="C22" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="109">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="99"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="38"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="99"/>
-    </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1">
-      <c r="A24" s="133"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="137"/>
-    </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1">
-      <c r="A25" s="133"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="138" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="139">
-        <v>0</v>
-      </c>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="138"/>
-      <c r="I25" s="140" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="137"/>
-    </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1">
-      <c r="A26" s="133"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="141">
-        <v>0</v>
-      </c>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="138"/>
-      <c r="I26" s="140" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" s="137"/>
-    </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1">
-      <c r="A27" s="133"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="144" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="141">
-        <v>0</v>
-      </c>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="145"/>
-    </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1">
-      <c r="A28" s="133"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="144"/>
-      <c r="E28" s="141">
-        <v>0</v>
-      </c>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="143"/>
-      <c r="I28" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="145"/>
-    </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1">
-      <c r="A29" s="133"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="143" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="144"/>
-      <c r="E29" s="141">
-        <v>0</v>
-      </c>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="143"/>
-      <c r="I29" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="145"/>
-    </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1">
-      <c r="A30" s="133"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="143" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="144"/>
-      <c r="E30" s="141">
-        <v>0</v>
-      </c>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="143"/>
-      <c r="I30" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="145"/>
-    </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1">
-      <c r="A31" s="133"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="144"/>
-      <c r="E31" s="141">
-        <v>0</v>
-      </c>
-      <c r="F31" s="143"/>
-      <c r="G31" s="138" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="143"/>
-      <c r="I31" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="145"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="133"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="138" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="141">
-        <v>0</v>
-      </c>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="138"/>
-      <c r="I32" s="140" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="137"/>
-    </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1">
-      <c r="A33" s="133"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="138" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="141">
-        <v>0</v>
-      </c>
-      <c r="F33" s="138"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="140" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" s="137"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="133"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="137"/>
-    </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1">
-      <c r="B35" s="38"/>
-      <c r="C35" s="13" t="s">
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="181" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="130"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="127"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="130"/>
+    </row>
+    <row r="30" spans="1:10" ht="17" thickBot="1">
+      <c r="B30" s="36"/>
+      <c r="C30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="99"/>
-    </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1">
-      <c r="B36" s="38"/>
-      <c r="C36" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="20" t="s">
+      <c r="D30" s="97"/>
+      <c r="E30" s="99"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="94"/>
+    </row>
+    <row r="31" spans="1:10" ht="17" thickBot="1">
+      <c r="B31" s="36"/>
+      <c r="C31" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E31" s="37">
         <f>'Research data'!H11</f>
         <v>13</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="99"/>
-    </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1">
-      <c r="A37" s="133"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="138" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="20" t="s">
+      <c r="F31" s="35"/>
+      <c r="G31" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="94"/>
+    </row>
+    <row r="32" spans="1:10" ht="17" thickBot="1">
+      <c r="A32" s="127"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="141">
+      <c r="E32" s="134">
         <v>0</v>
       </c>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" s="138"/>
-      <c r="I37" s="140" t="s">
-        <v>86</v>
-      </c>
-      <c r="J37" s="137"/>
-    </row>
-    <row r="38" spans="1:10" ht="17" thickBot="1">
-      <c r="B38" s="105"/>
-      <c r="C38" s="61" t="s">
+      <c r="F32" s="131"/>
+      <c r="G32" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="131"/>
+      <c r="I32" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="130"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
+      <c r="B33" s="100"/>
+      <c r="C33" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D33" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="106">
+      <c r="E33" s="101">
         <v>0</v>
       </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="J38" s="99"/>
-    </row>
-    <row r="39" spans="1:10" ht="17" thickBot="1">
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="94"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3913,326 +3777,295 @@
   <dimension ref="A2:Q15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="44" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="44" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="44" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="44" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="44" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="44"/>
-    <col min="12" max="12" width="2.5" style="44" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="44"/>
-    <col min="15" max="15" width="13.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.6640625" style="44" customWidth="1"/>
-    <col min="17" max="17" width="75" style="44" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="44"/>
+    <col min="1" max="2" width="3.42578125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="42"/>
+    <col min="12" max="12" width="2.42578125" style="42" customWidth="1"/>
+    <col min="13" max="14" width="10.85546875" style="42"/>
+    <col min="15" max="15" width="13.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" style="42" customWidth="1"/>
+    <col min="17" max="17" width="75" style="42" customWidth="1"/>
+    <col min="18" max="16384" width="10.85546875" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="17" thickBot="1"/>
     <row r="3" spans="1:17">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="1:17" s="22" customFormat="1">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:17" s="13" customFormat="1">
       <c r="B4" s="21"/>
-      <c r="C4" s="94" t="s">
-        <v>57</v>
+      <c r="C4" s="89" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="94"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="89"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="O4" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94" t="s">
-        <v>62</v>
+      <c r="K4" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1">
-      <c r="B5" s="47"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="Q5" s="60"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="Q5" s="57"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="31"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="59"/>
+      <c r="Q6" s="56"/>
     </row>
     <row r="7" spans="1:17" ht="17" thickBot="1">
-      <c r="A7" s="113"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="115" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118">
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="F7" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="112"/>
+      <c r="H7" s="113">
         <f>M7</f>
         <v>2.0422269584645436</v>
       </c>
-      <c r="I7" s="119"/>
-      <c r="K7" s="118">
+      <c r="I7" s="114"/>
+      <c r="K7" s="113">
         <f>Notes!E212</f>
         <v>1.8963536042885052</v>
       </c>
-      <c r="L7" s="120"/>
-      <c r="M7" s="118">
+      <c r="L7" s="115"/>
+      <c r="M7" s="113">
         <f>Notes!E210</f>
         <v>2.0422269584645436</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="129" t="s">
-        <v>77</v>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="123" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="17" thickBot="1">
-      <c r="A8" s="113"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="131" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="117"/>
-      <c r="H8" s="164">
+      <c r="A8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="112"/>
+      <c r="H8" s="155">
         <f>O8</f>
         <v>100</v>
       </c>
-      <c r="I8" s="119"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="164">
+      <c r="I8" s="114"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="155">
         <f>Notes!D120</f>
         <v>100</v>
       </c>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="165" t="s">
-        <v>118</v>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="154" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17" thickBot="1">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="189" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="190">
+      <c r="A9" s="108"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="112"/>
+      <c r="H9" s="170">
         <f>N9</f>
-        <v>4.1867632449266168E-4</v>
-      </c>
-      <c r="I9" s="119"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="191">
-        <f>Notes!E94</f>
-        <v>4.1867632449266168E-4</v>
-      </c>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="129"/>
+        <v>5.4866766968530989E-5</v>
+      </c>
+      <c r="I9" s="114"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="171">
+        <f>Notes!E95</f>
+        <v>5.4866766968530989E-5</v>
+      </c>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="123"/>
     </row>
     <row r="10" spans="1:17" ht="17" thickBot="1">
-      <c r="B10" s="47"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="31"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="59"/>
+      <c r="Q10" s="56"/>
     </row>
     <row r="11" spans="1:17" ht="17" thickBot="1">
-      <c r="B11" s="47"/>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="49" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="95"/>
-      <c r="H11" s="55">
+      <c r="G11" s="90"/>
+      <c r="H11" s="52">
         <f>K11</f>
         <v>13</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="K11" s="118">
+      <c r="I11" s="48"/>
+      <c r="K11" s="113">
         <f>Notes!E22</f>
         <v>13</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="64"/>
+      <c r="Q11" s="61"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="B12" s="47"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="50"/>
+      <c r="Q12" s="47"/>
     </row>
     <row r="13" spans="1:17" ht="17" thickBot="1">
-      <c r="B13" s="47"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="31"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="60"/>
+      <c r="Q13" s="57"/>
     </row>
     <row r="14" spans="1:17" ht="17" thickBot="1">
-      <c r="B14" s="47"/>
-      <c r="C14" s="98" t="s">
-        <v>60</v>
+      <c r="B14" s="45"/>
+      <c r="C14" s="93" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="52">
+      <c r="G14" s="91"/>
+      <c r="H14" s="49">
         <v>0</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="63"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="60"/>
     </row>
     <row r="15" spans="1:17" ht="17" thickBot="1">
-      <c r="B15" s="47"/>
-      <c r="C15" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="57">
+      <c r="B15" s="45"/>
+      <c r="C15" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="90"/>
+      <c r="H15" s="54">
         <v>0</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="64"/>
+      <c r="I15" s="55"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4251,34 +4084,34 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="67" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="67" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="67" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="67" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="72" customWidth="1"/>
-    <col min="9" max="9" width="31.83203125" style="72" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="67" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="67"/>
+    <col min="1" max="1" width="3.42578125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="63" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="63" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="63" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="68" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="68" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="63" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="70"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
@@ -4288,21 +4121,12 @@
       <c r="G3" s="13"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="70"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="66"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="75"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
@@ -4316,20 +4140,20 @@
         <v>19</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="70"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -4340,235 +4164,217 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="70"/>
+      <c r="B7" s="66"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="70"/>
-      <c r="C8" s="121" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="122" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="117">
+        <v>2013</v>
+      </c>
+      <c r="G8" s="117">
+        <v>2012</v>
+      </c>
+      <c r="H8" s="118">
+        <v>42326</v>
+      </c>
+      <c r="I8" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="J8" s="117" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="66"/>
+      <c r="C9" s="139" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="66"/>
+      <c r="C10" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="122">
+      <c r="F10" s="120">
+        <v>2014</v>
+      </c>
+      <c r="G10" s="120">
+        <v>2014</v>
+      </c>
+      <c r="H10" s="122">
+        <v>42326</v>
+      </c>
+      <c r="I10" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="117" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="66"/>
+      <c r="C11" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="141" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="63">
         <v>2013</v>
       </c>
-      <c r="G8" s="122">
-        <v>2012</v>
-      </c>
-      <c r="H8" s="123">
-        <v>42326</v>
-      </c>
-      <c r="I8" s="122" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="122" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="70"/>
-      <c r="C9" s="146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="70"/>
-      <c r="C10" s="121" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="125" t="s">
+      <c r="G11" s="63">
+        <v>2013</v>
+      </c>
+      <c r="H11" s="142" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="141" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="66"/>
+      <c r="C12" s="156" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="141" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="141" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="63">
+        <v>2016</v>
+      </c>
+      <c r="G12" s="63">
+        <v>2016</v>
+      </c>
+      <c r="H12" s="157">
+        <v>42606</v>
+      </c>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="66"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="14" spans="2:10" s="159" customFormat="1">
+      <c r="C14" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="125">
-        <v>2014</v>
-      </c>
-      <c r="G10" s="125">
-        <v>2014</v>
-      </c>
-      <c r="H10" s="128">
-        <v>42326</v>
-      </c>
-      <c r="I10" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="127" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="70"/>
-      <c r="C11" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="148" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="148" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="67">
-        <v>2013</v>
-      </c>
-      <c r="G11" s="67">
-        <v>2013</v>
-      </c>
-      <c r="H11" s="149" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="148" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="70"/>
-      <c r="C12" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="163" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="163" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="66">
-        <v>2016</v>
-      </c>
-      <c r="G12" s="66">
-        <v>2016</v>
-      </c>
-      <c r="H12" s="167">
-        <v>42606</v>
-      </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66" t="s">
+      <c r="G14" s="159">
+        <v>2015</v>
+      </c>
+      <c r="H14" s="160" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="160"/>
+      <c r="J14" s="159" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="159" customFormat="1">
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+    </row>
+    <row r="16" spans="2:10" s="159" customFormat="1">
+      <c r="C16" s="159" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="159" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="70"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="66"/>
-    </row>
-    <row r="14" spans="2:10" s="169" customFormat="1">
-      <c r="C14" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="169" t="s">
+      <c r="E16" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="169">
+      <c r="G16" s="159">
         <v>2015</v>
       </c>
-      <c r="H14" s="170" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="170"/>
-      <c r="J14" s="169" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="169" customFormat="1">
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-    </row>
-    <row r="16" spans="2:10" s="169" customFormat="1">
-      <c r="C16" s="169" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="169" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="169">
-        <v>2015</v>
-      </c>
-      <c r="H16" s="170" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="170"/>
-      <c r="J16" s="169" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" s="70"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="66"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="70"/>
-      <c r="C18" s="77"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="66"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="70"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" s="70"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="70"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="70"/>
-      <c r="C22" s="111"/>
-      <c r="H22" s="112"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="70"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="70"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="70"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="125"/>
-      <c r="B26" s="126"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="70"/>
+      <c r="H16" s="160" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="160"/>
+      <c r="J16" s="159" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="66"/>
+      <c r="C17" s="71"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="63"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="66"/>
+      <c r="C18" s="72"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="63"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="66"/>
+      <c r="C20" s="106"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="66"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="66"/>
+      <c r="C22" s="106"/>
+      <c r="H22" s="107"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="66"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="66"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="66"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="120"/>
+      <c r="B26" s="121"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4583,855 +4389,825 @@
   </sheetPr>
   <dimension ref="A1:M246"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="152" customWidth="1"/>
-    <col min="3" max="3" width="22" style="152" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="152" customWidth="1"/>
-    <col min="5" max="5" width="12" style="152" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="152" customWidth="1"/>
-    <col min="7" max="7" width="13" style="152" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="152" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="152"/>
-    <col min="10" max="10" width="19.83203125" style="152" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="152"/>
+    <col min="1" max="2" width="3.42578125" style="145" customWidth="1"/>
+    <col min="3" max="3" width="22" style="145" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="145" customWidth="1"/>
+    <col min="5" max="5" width="12" style="145" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="145" customWidth="1"/>
+    <col min="7" max="7" width="13" style="145" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="145" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="145"/>
+    <col min="10" max="10" width="19.85546875" style="145" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="145"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
+      <c r="B4" s="152"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
+      <c r="B5" s="152"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
+      <c r="B6" s="152"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="159"/>
-      <c r="C7" s="152" t="s">
-        <v>69</v>
+      <c r="B7" s="152"/>
+      <c r="C7" s="145" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="159"/>
+      <c r="B8" s="152"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="159"/>
+      <c r="B9" s="152"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="159"/>
-      <c r="C10" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="152">
+      <c r="B10" s="152"/>
+      <c r="C10" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="145">
         <v>0.7</v>
       </c>
-      <c r="F10" s="152" t="s">
-        <v>68</v>
+      <c r="F10" s="145" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="159"/>
-      <c r="E11" s="152">
+      <c r="B11" s="152"/>
+      <c r="E11" s="145">
         <f>1/E10</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="F11" s="152" t="s">
-        <v>65</v>
+      <c r="F11" s="145" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="159"/>
+      <c r="B12" s="152"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="159"/>
+      <c r="B13" s="152"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="159"/>
+      <c r="B14" s="152"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="159"/>
+      <c r="B15" s="152"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="159"/>
+      <c r="B16" s="152"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="159"/>
+      <c r="B17" s="152"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="159"/>
+      <c r="B18" s="152"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="159"/>
+      <c r="B19" s="152"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="159"/>
+      <c r="B20" s="152"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="159"/>
-      <c r="C21" s="152" t="s">
-        <v>108</v>
+      <c r="B21" s="152"/>
+      <c r="C21" s="145" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="159"/>
-      <c r="E22" s="152">
+      <c r="B22" s="152"/>
+      <c r="E22" s="145">
         <v>13</v>
       </c>
-      <c r="F22" s="152" t="s">
-        <v>107</v>
+      <c r="F22" s="145" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="159"/>
+      <c r="B23" s="152"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="159"/>
+      <c r="B24" s="152"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="159"/>
+      <c r="B25" s="152"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="159"/>
+      <c r="B26" s="152"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="159"/>
+      <c r="B27" s="152"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="159"/>
+      <c r="B28" s="152"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="159"/>
+      <c r="B29" s="152"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="159"/>
+      <c r="B30" s="152"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="159"/>
+      <c r="B31" s="152"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="159"/>
+      <c r="B32" s="152"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="159"/>
+      <c r="B33" s="152"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="159"/>
-    </row>
-    <row r="35" spans="2:3" s="158" customFormat="1">
-      <c r="B35" s="161"/>
+      <c r="B34" s="152"/>
+    </row>
+    <row r="35" spans="2:3" s="151" customFormat="1">
+      <c r="B35" s="153"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="159"/>
+      <c r="B36" s="152"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="159"/>
+      <c r="B37" s="152"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="159"/>
+      <c r="B38" s="152"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="159"/>
-      <c r="C39" s="152" t="s">
-        <v>73</v>
+      <c r="B39" s="152"/>
+      <c r="C39" s="145" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="159"/>
+      <c r="B40" s="152"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="159"/>
-      <c r="C41" s="152" t="s">
-        <v>74</v>
+      <c r="B41" s="152"/>
+      <c r="C41" s="145" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="159"/>
+      <c r="B42" s="152"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="159"/>
+      <c r="B43" s="152"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="159"/>
+      <c r="B44" s="152"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="159"/>
+      <c r="B45" s="152"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="159"/>
+      <c r="B46" s="152"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="159"/>
+      <c r="B47" s="152"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="159"/>
+      <c r="B48" s="152"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="159"/>
+      <c r="B49" s="152"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="159"/>
+      <c r="B50" s="152"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="159"/>
+      <c r="B51" s="152"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="159"/>
+      <c r="B52" s="152"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="159"/>
+      <c r="B53" s="152"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="159"/>
+      <c r="B54" s="152"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="159"/>
+      <c r="B55" s="152"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="159"/>
+      <c r="B56" s="152"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="159"/>
+      <c r="B57" s="152"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="159"/>
+      <c r="B58" s="152"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="159"/>
+      <c r="B59" s="152"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="159"/>
+      <c r="B60" s="152"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="159"/>
+      <c r="B61" s="152"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="159"/>
+      <c r="B62" s="152"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="159"/>
+      <c r="B63" s="152"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="159"/>
+      <c r="B64" s="152"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="159"/>
+      <c r="B65" s="152"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="159"/>
+      <c r="B66" s="152"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="159"/>
+      <c r="B67" s="152"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="159"/>
+      <c r="B68" s="152"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="159"/>
+      <c r="B69" s="152"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="159"/>
+      <c r="B70" s="152"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="159"/>
-      <c r="E71" s="152">
+      <c r="B71" s="152"/>
+      <c r="E71" s="145">
         <v>0.65</v>
       </c>
-      <c r="F71" s="152" t="s">
-        <v>68</v>
+      <c r="F71" s="145" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="159"/>
-      <c r="E72" s="152">
+      <c r="B72" s="152"/>
+      <c r="E72" s="145">
         <f>1/E71</f>
         <v>1.5384615384615383</v>
       </c>
-      <c r="F72" s="152" t="s">
-        <v>65</v>
+      <c r="F72" s="145" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="159"/>
+      <c r="B73" s="152"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="159"/>
+      <c r="B74" s="152"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="159"/>
+      <c r="B75" s="152"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="159"/>
+      <c r="B76" s="152"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="159"/>
+      <c r="B77" s="152"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="159"/>
+      <c r="B78" s="152"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="159"/>
+      <c r="B79" s="152"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="159"/>
+      <c r="B80" s="152"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="159"/>
+      <c r="B81" s="152"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="159"/>
+      <c r="B82" s="152"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="159"/>
+      <c r="B83" s="152"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="159"/>
+      <c r="B84" s="152"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="159"/>
+      <c r="B85" s="152"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="159"/>
+      <c r="B86" s="152"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="159"/>
+      <c r="B87" s="152"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="159"/>
+      <c r="B88" s="152"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="159"/>
-    </row>
-    <row r="90" spans="2:7" s="158" customFormat="1">
-      <c r="B90" s="161"/>
+      <c r="B89" s="152"/>
+    </row>
+    <row r="90" spans="2:7" s="151" customFormat="1">
+      <c r="B90" s="153"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="159"/>
+      <c r="B91" s="152"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="159"/>
-      <c r="C92" s="152" t="s">
-        <v>111</v>
-      </c>
-      <c r="E92" s="152">
+      <c r="B92" s="152"/>
+      <c r="C92" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" s="145">
         <v>85</v>
       </c>
-      <c r="F92" s="152" t="s">
-        <v>81</v>
-      </c>
-      <c r="G92" s="152" t="s">
+      <c r="F92" s="145" t="s">
+        <v>76</v>
+      </c>
+      <c r="G92" s="145" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="17" thickBot="1">
+      <c r="B93" s="152"/>
+      <c r="C93" s="145" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="159"/>
-      <c r="C93" s="152" t="s">
+      <c r="E93" s="168">
+        <v>0.01</v>
+      </c>
+      <c r="G93" s="145" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="17" thickBot="1">
+      <c r="B94" s="152"/>
+      <c r="D94" s="185" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="186">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="17" thickBot="1">
+      <c r="B95" s="152"/>
+      <c r="D95" s="185" t="s">
+        <v>139</v>
+      </c>
+      <c r="E95" s="187">
+        <f>1-(1-E94)^(1/(24*31))</f>
+        <v>5.4866766968530989E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="152"/>
+      <c r="E96" s="167"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="152"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="152"/>
+      <c r="D98" s="166"/>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="152"/>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="152"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="152"/>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="152"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="152"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="152"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="152"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="152"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="152"/>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="152"/>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="152"/>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="152"/>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="152"/>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="152"/>
+    </row>
+    <row r="113" spans="1:5" s="151" customFormat="1">
+      <c r="A113" s="143"/>
+      <c r="B113" s="144"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" s="152"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" s="152"/>
+      <c r="C115" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="E93" s="187">
-        <v>0.01</v>
-      </c>
-      <c r="G93" s="152" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="159"/>
-      <c r="E94" s="188">
-        <f>1-((1-E93)^(1/24))</f>
-        <v>4.1867632449266168E-4</v>
-      </c>
-      <c r="F94" s="152" t="s">
-        <v>142</v>
-      </c>
-      <c r="G94" s="152" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="159"/>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="B96" s="159"/>
-      <c r="E96" s="186"/>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="159"/>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="159"/>
-      <c r="D98" s="185"/>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="159"/>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="159"/>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="159"/>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" s="159"/>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="159"/>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="159"/>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" s="159"/>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="159"/>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="159"/>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="159"/>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="B109" s="159"/>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="B110" s="159"/>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="B111" s="159"/>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="B112" s="159"/>
-    </row>
-    <row r="113" spans="1:5" s="158" customFormat="1">
-      <c r="A113" s="150"/>
-      <c r="B113" s="151"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="B114" s="159"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="B115" s="159"/>
-      <c r="C115" s="152" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="B116" s="159"/>
-      <c r="C116" s="152" t="s">
+      <c r="B116" s="152"/>
+      <c r="C116" s="145" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" s="152"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" s="152"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" s="152"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" s="152"/>
+      <c r="C120" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120" s="145">
+        <v>100</v>
+      </c>
+      <c r="E120" s="145" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="B121" s="152"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122" s="152"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" s="152"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="B124" s="152"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="B125" s="152"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="B126" s="152"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" s="152"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" s="152"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="152"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="152"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="152"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="152"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="152"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="152"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="152"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="152"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="152"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="152"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="152"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="152"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="152"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="152"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="152"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="152"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="152"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="152"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="152"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="152"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="152"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="152"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="152"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="152"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="152"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="152"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="152"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="152"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="152"/>
+    </row>
+    <row r="200" spans="2:6" ht="17" thickBot="1"/>
+    <row r="201" spans="2:6" s="117" customFormat="1" ht="17" thickBot="1">
+      <c r="B201" s="161"/>
+      <c r="C201" s="162" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="B117" s="159"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="B118" s="159"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="B119" s="159"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="B120" s="159"/>
-      <c r="C120" s="152" t="s">
-        <v>116</v>
-      </c>
-      <c r="D120" s="152">
-        <v>100</v>
-      </c>
-      <c r="E120" s="152" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="B121" s="159"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="B122" s="159"/>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="B123" s="159"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="B124" s="159"/>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="B125" s="159"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="B126" s="159"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="B127" s="159"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="B128" s="159"/>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="159"/>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="159"/>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="159"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="159"/>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="159"/>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="159"/>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="159"/>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="159"/>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="159"/>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="159"/>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="159"/>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="159"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="159"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="159"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="159"/>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="159"/>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="159"/>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="159"/>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="159"/>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="159"/>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="159"/>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="159"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="159"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="159"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="159"/>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="159"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="159"/>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="159"/>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="159"/>
-    </row>
-    <row r="200" spans="2:6" ht="17" thickBot="1"/>
-    <row r="201" spans="2:6" s="127" customFormat="1" ht="17" thickBot="1">
-      <c r="B201" s="171"/>
-      <c r="C201" s="172" t="s">
-        <v>130</v>
-      </c>
-      <c r="D201" s="127" t="s">
-        <v>135</v>
-      </c>
-      <c r="E201" s="173">
+      <c r="D201" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="E201" s="163">
         <v>105088.9</v>
       </c>
-      <c r="F201" s="127" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" s="127" customFormat="1" ht="17" thickBot="1">
-      <c r="B202" s="171"/>
-      <c r="E202" s="127">
+      <c r="F201" s="117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" s="117" customFormat="1" ht="17" thickBot="1">
+      <c r="B202" s="161"/>
+      <c r="E202" s="117">
         <f>E201*1000000</f>
         <v>105088900000</v>
       </c>
-      <c r="F202" s="127" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6" s="127" customFormat="1" ht="17" thickBot="1">
-      <c r="B203" s="171"/>
-      <c r="D203" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="E203" s="174">
+      <c r="F202" s="117" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" s="117" customFormat="1" ht="17" thickBot="1">
+      <c r="B203" s="161"/>
+      <c r="D203" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="E203" s="164">
         <f>(97.3+42.2)</f>
         <v>139.5</v>
       </c>
-      <c r="F203" s="127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" s="127" customFormat="1">
-      <c r="B204" s="171"/>
-      <c r="E204" s="127">
+      <c r="F203" s="117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" s="117" customFormat="1">
+      <c r="B204" s="161"/>
+      <c r="E204" s="117">
         <f>E203*1000000000</f>
         <v>139500000000</v>
       </c>
-      <c r="F204" s="127" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" s="127" customFormat="1">
-      <c r="B205" s="171"/>
-    </row>
-    <row r="206" spans="2:6" s="127" customFormat="1">
-      <c r="B206" s="171"/>
-      <c r="E206" s="175">
+      <c r="F204" s="117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" s="117" customFormat="1">
+      <c r="B205" s="161"/>
+    </row>
+    <row r="206" spans="2:6" s="117" customFormat="1">
+      <c r="B206" s="161"/>
+      <c r="E206" s="165">
         <f>E204/E202</f>
         <v>1.3274475230019536</v>
       </c>
-      <c r="F206" s="127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" s="127" customFormat="1">
-      <c r="B207" s="171"/>
-    </row>
-    <row r="208" spans="2:6" s="127" customFormat="1">
-      <c r="B208" s="171"/>
-    </row>
-    <row r="209" spans="2:7" s="127" customFormat="1">
-      <c r="B209" s="171"/>
-    </row>
-    <row r="210" spans="2:7" s="127" customFormat="1">
-      <c r="B210" s="171"/>
-      <c r="D210" s="127" t="str">
+      <c r="F206" s="117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" s="117" customFormat="1">
+      <c r="B207" s="161"/>
+    </row>
+    <row r="208" spans="2:6" s="117" customFormat="1">
+      <c r="B208" s="161"/>
+    </row>
+    <row r="209" spans="2:7" s="117" customFormat="1">
+      <c r="B209" s="161"/>
+    </row>
+    <row r="210" spans="2:7" s="117" customFormat="1">
+      <c r="B210" s="161"/>
+      <c r="D210" s="117" t="str">
         <f>Dashboard!C11</f>
         <v>output.passenger_kms</v>
       </c>
-      <c r="E210" s="127">
+      <c r="E210" s="117">
         <f>E206*E72</f>
         <v>2.0422269584645436</v>
       </c>
-      <c r="F210" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="G210" s="94" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7" s="127" customFormat="1">
-      <c r="B211" s="171"/>
-    </row>
-    <row r="212" spans="2:7" s="127" customFormat="1">
-      <c r="B212" s="171"/>
-      <c r="D212" s="127" t="str">
+      <c r="F210" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="G210" s="89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" s="117" customFormat="1">
+      <c r="B211" s="161"/>
+    </row>
+    <row r="212" spans="2:7" s="117" customFormat="1">
+      <c r="B212" s="161"/>
+      <c r="D212" s="117" t="str">
         <f>Dashboard!C11</f>
         <v>output.passenger_kms</v>
       </c>
-      <c r="E212" s="127">
+      <c r="E212" s="117">
         <f>E206*E11</f>
         <v>1.8963536042885052</v>
       </c>
-      <c r="G212" s="94" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7" s="127" customFormat="1">
-      <c r="B213" s="171"/>
-    </row>
-    <row r="214" spans="2:7" s="127" customFormat="1">
-      <c r="B214" s="171"/>
-    </row>
-    <row r="215" spans="2:7" s="127" customFormat="1">
-      <c r="B215" s="171"/>
-    </row>
-    <row r="216" spans="2:7" s="127" customFormat="1">
-      <c r="B216" s="171"/>
-    </row>
-    <row r="217" spans="2:7" s="127" customFormat="1">
-      <c r="B217" s="171"/>
-    </row>
-    <row r="218" spans="2:7" s="127" customFormat="1">
-      <c r="B218" s="171"/>
-    </row>
-    <row r="219" spans="2:7" s="127" customFormat="1">
-      <c r="B219" s="171"/>
-    </row>
-    <row r="220" spans="2:7" s="127" customFormat="1">
-      <c r="B220" s="171"/>
-    </row>
-    <row r="221" spans="2:7" s="127" customFormat="1">
-      <c r="B221" s="171"/>
-    </row>
-    <row r="222" spans="2:7" s="127" customFormat="1">
-      <c r="B222" s="171"/>
-    </row>
-    <row r="223" spans="2:7" s="127" customFormat="1">
-      <c r="B223" s="171"/>
-    </row>
-    <row r="224" spans="2:7" s="127" customFormat="1">
-      <c r="B224" s="171"/>
-    </row>
-    <row r="225" spans="2:2" s="127" customFormat="1">
-      <c r="B225" s="171"/>
-    </row>
-    <row r="226" spans="2:2" s="127" customFormat="1">
-      <c r="B226" s="171"/>
-    </row>
-    <row r="227" spans="2:2" s="127" customFormat="1">
-      <c r="B227" s="171"/>
-    </row>
-    <row r="228" spans="2:2" s="127" customFormat="1">
-      <c r="B228" s="171"/>
-    </row>
-    <row r="229" spans="2:2" s="127" customFormat="1">
-      <c r="B229" s="171"/>
-    </row>
-    <row r="230" spans="2:2" s="127" customFormat="1">
-      <c r="B230" s="171"/>
-    </row>
-    <row r="231" spans="2:2" s="127" customFormat="1">
-      <c r="B231" s="171"/>
-    </row>
-    <row r="232" spans="2:2" s="127" customFormat="1">
-      <c r="B232" s="171"/>
-    </row>
-    <row r="233" spans="2:2" s="127" customFormat="1">
-      <c r="B233" s="171"/>
-    </row>
-    <row r="234" spans="2:2" s="127" customFormat="1">
-      <c r="B234" s="171"/>
-    </row>
-    <row r="235" spans="2:2" s="127" customFormat="1">
-      <c r="B235" s="171"/>
-    </row>
-    <row r="236" spans="2:2" s="127" customFormat="1">
-      <c r="B236" s="171"/>
-    </row>
-    <row r="237" spans="2:2" s="127" customFormat="1">
-      <c r="B237" s="171"/>
-    </row>
-    <row r="238" spans="2:2" s="127" customFormat="1">
-      <c r="B238" s="171"/>
-    </row>
-    <row r="239" spans="2:2" s="127" customFormat="1">
-      <c r="B239" s="171"/>
-    </row>
-    <row r="240" spans="2:2" s="127" customFormat="1">
-      <c r="B240" s="171"/>
-    </row>
-    <row r="241" spans="2:2" s="127" customFormat="1">
-      <c r="B241" s="171"/>
-    </row>
-    <row r="242" spans="2:2" s="127" customFormat="1">
-      <c r="B242" s="171"/>
-    </row>
-    <row r="243" spans="2:2" s="127" customFormat="1">
-      <c r="B243" s="171"/>
-    </row>
-    <row r="244" spans="2:2" s="127" customFormat="1">
-      <c r="B244" s="171"/>
-    </row>
-    <row r="245" spans="2:2" s="127" customFormat="1">
-      <c r="B245" s="171"/>
-    </row>
-    <row r="246" spans="2:2" s="127" customFormat="1">
-      <c r="B246" s="171"/>
+      <c r="G212" s="89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" s="117" customFormat="1">
+      <c r="B213" s="161"/>
+    </row>
+    <row r="214" spans="2:7" s="117" customFormat="1">
+      <c r="B214" s="161"/>
+    </row>
+    <row r="215" spans="2:7" s="117" customFormat="1">
+      <c r="B215" s="161"/>
+    </row>
+    <row r="216" spans="2:7" s="117" customFormat="1">
+      <c r="B216" s="161"/>
+    </row>
+    <row r="217" spans="2:7" s="117" customFormat="1">
+      <c r="B217" s="161"/>
+    </row>
+    <row r="218" spans="2:7" s="117" customFormat="1">
+      <c r="B218" s="161"/>
+    </row>
+    <row r="219" spans="2:7" s="117" customFormat="1">
+      <c r="B219" s="161"/>
+    </row>
+    <row r="220" spans="2:7" s="117" customFormat="1">
+      <c r="B220" s="161"/>
+    </row>
+    <row r="221" spans="2:7" s="117" customFormat="1">
+      <c r="B221" s="161"/>
+    </row>
+    <row r="222" spans="2:7" s="117" customFormat="1">
+      <c r="B222" s="161"/>
+    </row>
+    <row r="223" spans="2:7" s="117" customFormat="1">
+      <c r="B223" s="161"/>
+    </row>
+    <row r="224" spans="2:7" s="117" customFormat="1">
+      <c r="B224" s="161"/>
+    </row>
+    <row r="225" spans="2:2" s="117" customFormat="1">
+      <c r="B225" s="161"/>
+    </row>
+    <row r="226" spans="2:2" s="117" customFormat="1">
+      <c r="B226" s="161"/>
+    </row>
+    <row r="227" spans="2:2" s="117" customFormat="1">
+      <c r="B227" s="161"/>
+    </row>
+    <row r="228" spans="2:2" s="117" customFormat="1">
+      <c r="B228" s="161"/>
+    </row>
+    <row r="229" spans="2:2" s="117" customFormat="1">
+      <c r="B229" s="161"/>
+    </row>
+    <row r="230" spans="2:2" s="117" customFormat="1">
+      <c r="B230" s="161"/>
+    </row>
+    <row r="231" spans="2:2" s="117" customFormat="1">
+      <c r="B231" s="161"/>
+    </row>
+    <row r="232" spans="2:2" s="117" customFormat="1">
+      <c r="B232" s="161"/>
+    </row>
+    <row r="233" spans="2:2" s="117" customFormat="1">
+      <c r="B233" s="161"/>
+    </row>
+    <row r="234" spans="2:2" s="117" customFormat="1">
+      <c r="B234" s="161"/>
+    </row>
+    <row r="235" spans="2:2" s="117" customFormat="1">
+      <c r="B235" s="161"/>
+    </row>
+    <row r="236" spans="2:2" s="117" customFormat="1">
+      <c r="B236" s="161"/>
+    </row>
+    <row r="237" spans="2:2" s="117" customFormat="1">
+      <c r="B237" s="161"/>
+    </row>
+    <row r="238" spans="2:2" s="117" customFormat="1">
+      <c r="B238" s="161"/>
+    </row>
+    <row r="239" spans="2:2" s="117" customFormat="1">
+      <c r="B239" s="161"/>
+    </row>
+    <row r="240" spans="2:2" s="117" customFormat="1">
+      <c r="B240" s="161"/>
+    </row>
+    <row r="241" spans="2:2" s="117" customFormat="1">
+      <c r="B241" s="161"/>
+    </row>
+    <row r="242" spans="2:2" s="117" customFormat="1">
+      <c r="B242" s="161"/>
+    </row>
+    <row r="243" spans="2:2" s="117" customFormat="1">
+      <c r="B243" s="161"/>
+    </row>
+    <row r="244" spans="2:2" s="117" customFormat="1">
+      <c r="B244" s="161"/>
+    </row>
+    <row r="245" spans="2:2" s="117" customFormat="1">
+      <c r="B245" s="161"/>
+    </row>
+    <row r="246" spans="2:2" s="117" customFormat="1">
+      <c r="B246" s="161"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
